--- a/data/pca/factorExposure/factorExposure_2009-02-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01638816233533014</v>
+        <v>0.01514733106802656</v>
       </c>
       <c r="C2">
-        <v>-0.008773624037539928</v>
+        <v>0.01031131601588453</v>
       </c>
       <c r="D2">
-        <v>0.01666787712397269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01578353136187426</v>
+      </c>
+      <c r="E2">
+        <v>0.001276533612566656</v>
+      </c>
+      <c r="F2">
+        <v>0.005258527290172431</v>
+      </c>
+      <c r="G2">
+        <v>0.01781113245684714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08172026711004152</v>
+        <v>0.08416337131958797</v>
       </c>
       <c r="C4">
-        <v>-0.08090421505752028</v>
+        <v>0.08649015075618979</v>
       </c>
       <c r="D4">
-        <v>-0.06521102668383655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06468432449833958</v>
+      </c>
+      <c r="E4">
+        <v>-0.000744667203589822</v>
+      </c>
+      <c r="F4">
+        <v>0.04019895645785306</v>
+      </c>
+      <c r="G4">
+        <v>0.02939760700351303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.002543772909467434</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0009916137806117106</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-9.418441462180795e-05</v>
+      </c>
+      <c r="E5">
+        <v>-0.002791684628928712</v>
+      </c>
+      <c r="F5">
+        <v>-0.001587739262058421</v>
+      </c>
+      <c r="G5">
+        <v>-0.001981064938590793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1678123381313798</v>
+        <v>0.170393925028864</v>
       </c>
       <c r="C6">
-        <v>0.01911745906368236</v>
+        <v>-0.01136893681733452</v>
       </c>
       <c r="D6">
-        <v>-0.05249184305266035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05317521496340292</v>
+      </c>
+      <c r="E6">
+        <v>0.006357752335406164</v>
+      </c>
+      <c r="F6">
+        <v>-0.04527558574835795</v>
+      </c>
+      <c r="G6">
+        <v>-0.01469472405348356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0546848945595402</v>
+        <v>0.05911821126890956</v>
       </c>
       <c r="C7">
-        <v>-0.05634011727204338</v>
+        <v>0.06222135466762247</v>
       </c>
       <c r="D7">
-        <v>-0.04615666757399532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05617343419911753</v>
+      </c>
+      <c r="E7">
+        <v>0.03783251205035049</v>
+      </c>
+      <c r="F7">
+        <v>0.06886414563630551</v>
+      </c>
+      <c r="G7">
+        <v>0.04555758249269717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05769073828239689</v>
+        <v>0.05381716546875943</v>
       </c>
       <c r="C8">
-        <v>-0.04719616394307784</v>
+        <v>0.04817740273463163</v>
       </c>
       <c r="D8">
-        <v>0.0237437575388429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0231092018874942</v>
+      </c>
+      <c r="E8">
+        <v>-0.02899375435967726</v>
+      </c>
+      <c r="F8">
+        <v>0.03249419467359273</v>
+      </c>
+      <c r="G8">
+        <v>-0.004950326283633467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06172372272869688</v>
+        <v>0.06505585294412432</v>
       </c>
       <c r="C9">
-        <v>-0.0871817757355287</v>
+        <v>0.09095807636637585</v>
       </c>
       <c r="D9">
-        <v>-0.08684921007308621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08340378604553596</v>
+      </c>
+      <c r="E9">
+        <v>0.0004896284596200241</v>
+      </c>
+      <c r="F9">
+        <v>0.06556406074174448</v>
+      </c>
+      <c r="G9">
+        <v>0.00352550431470912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1062762406438684</v>
+        <v>0.09888070504575147</v>
       </c>
       <c r="C10">
-        <v>0.1537761737298847</v>
+        <v>-0.1463476920275463</v>
       </c>
       <c r="D10">
-        <v>0.1067988970098096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0957752067383488</v>
+      </c>
+      <c r="E10">
+        <v>0.01973711003977649</v>
+      </c>
+      <c r="F10">
+        <v>0.04025795293930474</v>
+      </c>
+      <c r="G10">
+        <v>-0.006422514987547127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07935763940254109</v>
+        <v>0.07724139164168467</v>
       </c>
       <c r="C11">
-        <v>-0.1274685313910852</v>
+        <v>0.1269775462148818</v>
       </c>
       <c r="D11">
-        <v>-0.05305629661968614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04467941084630437</v>
+      </c>
+      <c r="E11">
+        <v>-0.01534339620973314</v>
+      </c>
+      <c r="F11">
+        <v>0.07750030947661264</v>
+      </c>
+      <c r="G11">
+        <v>0.006930521280387882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08353514728130954</v>
+        <v>0.07923278508154878</v>
       </c>
       <c r="C12">
-        <v>-0.1459791694519369</v>
+        <v>0.1474978651514716</v>
       </c>
       <c r="D12">
-        <v>-0.05774912708501086</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05390636030225838</v>
+      </c>
+      <c r="E12">
+        <v>-0.007239590065038349</v>
+      </c>
+      <c r="F12">
+        <v>0.08415980914656473</v>
+      </c>
+      <c r="G12">
+        <v>0.009549265221277758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04252100006200296</v>
+        <v>0.0423848515356095</v>
       </c>
       <c r="C13">
-        <v>-0.061728325216929</v>
+        <v>0.06949429362787271</v>
       </c>
       <c r="D13">
-        <v>-0.02662267541968428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02749775267841895</v>
+      </c>
+      <c r="E13">
+        <v>0.006717546892623248</v>
+      </c>
+      <c r="F13">
+        <v>0.0778877616624694</v>
+      </c>
+      <c r="G13">
+        <v>0.01222197860850812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02015193680082659</v>
+        <v>0.02295306125196537</v>
       </c>
       <c r="C14">
-        <v>-0.04095287936130078</v>
+        <v>0.04153082424052517</v>
       </c>
       <c r="D14">
-        <v>-0.04698874141292367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04079194903085574</v>
+      </c>
+      <c r="E14">
+        <v>-0.01278936950295915</v>
+      </c>
+      <c r="F14">
+        <v>0.08614266880268646</v>
+      </c>
+      <c r="G14">
+        <v>-0.0007162574563987773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03120168543494535</v>
+        <v>0.03358915404531968</v>
       </c>
       <c r="C15">
-        <v>-0.0573182542699893</v>
+        <v>0.05692077404616289</v>
       </c>
       <c r="D15">
-        <v>-0.04382843291409439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04002259775619434</v>
+      </c>
+      <c r="E15">
+        <v>0.005230914099048045</v>
+      </c>
+      <c r="F15">
+        <v>0.03502255023652438</v>
+      </c>
+      <c r="G15">
+        <v>-0.00806000872611456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05792583270690095</v>
+        <v>0.05796341594166375</v>
       </c>
       <c r="C16">
-        <v>-0.1423710291661186</v>
+        <v>0.1420308211309673</v>
       </c>
       <c r="D16">
-        <v>-0.06369212789661843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05400977030629383</v>
+      </c>
+      <c r="E16">
+        <v>-0.03137053211734191</v>
+      </c>
+      <c r="F16">
+        <v>0.08064437234781166</v>
+      </c>
+      <c r="G16">
+        <v>0.01121981461700738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004933265006642627</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004178587832058434</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00256957465072496</v>
+      </c>
+      <c r="E17">
+        <v>-0.009291373483386449</v>
+      </c>
+      <c r="F17">
+        <v>-0.005294773735204566</v>
+      </c>
+      <c r="G17">
+        <v>-0.0170780270451243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03483503593614664</v>
+        <v>0.05142658569809893</v>
       </c>
       <c r="C18">
-        <v>-0.04453209320260488</v>
+        <v>0.03918461628213124</v>
       </c>
       <c r="D18">
-        <v>0.00616858357564621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01225207402771309</v>
+      </c>
+      <c r="E18">
+        <v>-0.002036704386191443</v>
+      </c>
+      <c r="F18">
+        <v>-0.04127221989069788</v>
+      </c>
+      <c r="G18">
+        <v>-0.01236955670086893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05723897174754616</v>
+        <v>0.05733593469233517</v>
       </c>
       <c r="C20">
-        <v>-0.09301619858718441</v>
+        <v>0.09294768941651527</v>
       </c>
       <c r="D20">
-        <v>-0.0712903724568698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.06796692161766611</v>
+      </c>
+      <c r="E20">
+        <v>-0.02575239739400445</v>
+      </c>
+      <c r="F20">
+        <v>0.07204644031924314</v>
+      </c>
+      <c r="G20">
+        <v>-0.004193883890790378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04205574799995429</v>
+        <v>0.04409947441136212</v>
       </c>
       <c r="C21">
-        <v>-0.05435814835681642</v>
+        <v>0.05351875625823993</v>
       </c>
       <c r="D21">
-        <v>0.0001697565585842148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.002818996388975011</v>
+      </c>
+      <c r="E21">
+        <v>0.005602462969941368</v>
+      </c>
+      <c r="F21">
+        <v>0.07760329747248079</v>
+      </c>
+      <c r="G21">
+        <v>0.02716966415716337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04473197979659715</v>
+        <v>0.04320724822006205</v>
       </c>
       <c r="C22">
-        <v>-0.01882585905392443</v>
+        <v>0.02006298064928363</v>
       </c>
       <c r="D22">
-        <v>0.02131802776219892</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.05337147296141831</v>
+      </c>
+      <c r="E22">
+        <v>-0.1169981148318668</v>
+      </c>
+      <c r="F22">
+        <v>-0.02324826900753347</v>
+      </c>
+      <c r="G22">
+        <v>7.114557205933737e-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04474137955923433</v>
+        <v>0.0432152078726612</v>
       </c>
       <c r="C23">
-        <v>-0.01881811199981489</v>
+        <v>0.02005635312092393</v>
       </c>
       <c r="D23">
-        <v>0.02134663648918754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.05340379355245288</v>
+      </c>
+      <c r="E23">
+        <v>-0.1170299801769974</v>
+      </c>
+      <c r="F23">
+        <v>-0.02324096992065293</v>
+      </c>
+      <c r="G23">
+        <v>3.673081064252129e-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06729232647551875</v>
+        <v>0.06670280537691485</v>
       </c>
       <c r="C24">
-        <v>-0.1358701735334086</v>
+        <v>0.1342050824271887</v>
       </c>
       <c r="D24">
-        <v>-0.05977656817014337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05393068726887113</v>
+      </c>
+      <c r="E24">
+        <v>-0.01191204600655359</v>
+      </c>
+      <c r="F24">
+        <v>0.07380962197384122</v>
+      </c>
+      <c r="G24">
+        <v>0.01090434036765856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07270687055671053</v>
+        <v>0.07102546665469293</v>
       </c>
       <c r="C25">
-        <v>-0.1204345914631285</v>
+        <v>0.1187096981610946</v>
       </c>
       <c r="D25">
-        <v>-0.04518775032260987</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03822591170273629</v>
+      </c>
+      <c r="E25">
+        <v>0.01778751254951017</v>
+      </c>
+      <c r="F25">
+        <v>0.08825387386391033</v>
+      </c>
+      <c r="G25">
+        <v>0.01669675514345013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05544648893334336</v>
+        <v>0.05993209153250013</v>
       </c>
       <c r="C26">
-        <v>-0.06396885363780885</v>
+        <v>0.0650549599145637</v>
       </c>
       <c r="D26">
-        <v>-0.01844347458097591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01448770768571762</v>
+      </c>
+      <c r="E26">
+        <v>-0.01033357695729236</v>
+      </c>
+      <c r="F26">
+        <v>0.08030373314811866</v>
+      </c>
+      <c r="G26">
+        <v>0.001528261750381029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1692799749838082</v>
+        <v>0.1720654563665295</v>
       </c>
       <c r="C28">
-        <v>0.2310194985150894</v>
+        <v>-0.2315190784033788</v>
       </c>
       <c r="D28">
-        <v>0.01539995517744609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01839962696890779</v>
+      </c>
+      <c r="E28">
+        <v>0.06591972746720728</v>
+      </c>
+      <c r="F28">
+        <v>0.1243267201998412</v>
+      </c>
+      <c r="G28">
+        <v>0.0003192361961991339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02422235667161098</v>
+        <v>0.02698273973254086</v>
       </c>
       <c r="C29">
-        <v>-0.04593850951093421</v>
+        <v>0.04349779748904312</v>
       </c>
       <c r="D29">
-        <v>-0.00721391270712944</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0008344987919847014</v>
+      </c>
+      <c r="E29">
+        <v>-0.02733792748053957</v>
+      </c>
+      <c r="F29">
+        <v>0.07560544205532074</v>
+      </c>
+      <c r="G29">
+        <v>0.001874684524312041</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04048287525985721</v>
+        <v>0.04262750223084342</v>
       </c>
       <c r="C30">
-        <v>-0.06869183158528025</v>
+        <v>0.07630706127179897</v>
       </c>
       <c r="D30">
-        <v>-0.1195344807161295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1088106033359653</v>
+      </c>
+      <c r="E30">
+        <v>0.0491992693060344</v>
+      </c>
+      <c r="F30">
+        <v>0.08145304523312244</v>
+      </c>
+      <c r="G30">
+        <v>-0.02200964537315419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05236021745267223</v>
+        <v>0.0516663885864963</v>
       </c>
       <c r="C31">
-        <v>-0.03165788931094066</v>
+        <v>0.03496126257713406</v>
       </c>
       <c r="D31">
-        <v>-0.008444569717443208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.009699611903126112</v>
+      </c>
+      <c r="E31">
+        <v>-0.03618213457243917</v>
+      </c>
+      <c r="F31">
+        <v>0.01431746318531102</v>
+      </c>
+      <c r="G31">
+        <v>0.02483052211389767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04292768099959769</v>
+        <v>0.04790680234541137</v>
       </c>
       <c r="C32">
-        <v>-0.04653637853067899</v>
+        <v>0.04408329854880215</v>
       </c>
       <c r="D32">
-        <v>-0.01986899562821691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01935960019305124</v>
+      </c>
+      <c r="E32">
+        <v>-0.031827280781128</v>
+      </c>
+      <c r="F32">
+        <v>0.004480585381024052</v>
+      </c>
+      <c r="G32">
+        <v>-0.01442443306585054</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07916658745889517</v>
+        <v>0.08256631338644264</v>
       </c>
       <c r="C33">
-        <v>-0.1081178943965049</v>
+        <v>0.1165709317690305</v>
       </c>
       <c r="D33">
-        <v>-0.06022327156055497</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05847781937077513</v>
+      </c>
+      <c r="E33">
+        <v>-0.02804774106653251</v>
+      </c>
+      <c r="F33">
+        <v>0.0801830579332586</v>
+      </c>
+      <c r="G33">
+        <v>0.007381196607476328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05626387804051954</v>
+        <v>0.05600936088375678</v>
       </c>
       <c r="C34">
-        <v>-0.1200684771996883</v>
+        <v>0.1217526525088425</v>
       </c>
       <c r="D34">
-        <v>-0.07450328583174687</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06144812246350291</v>
+      </c>
+      <c r="E34">
+        <v>0.0144824664579712</v>
+      </c>
+      <c r="F34">
+        <v>0.08859087563330557</v>
+      </c>
+      <c r="G34">
+        <v>-0.01715920461431557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02698691852180432</v>
+        <v>0.02883339849618379</v>
       </c>
       <c r="C35">
-        <v>-0.01623009114441381</v>
+        <v>0.01746652265129036</v>
       </c>
       <c r="D35">
-        <v>-0.02045433097663369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01426953983649403</v>
+      </c>
+      <c r="E35">
+        <v>-0.02491112217573473</v>
+      </c>
+      <c r="F35">
+        <v>0.04006599800429932</v>
+      </c>
+      <c r="G35">
+        <v>-0.02349855609359101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02230239427527881</v>
+        <v>0.02703484741982767</v>
       </c>
       <c r="C36">
-        <v>-0.04467924265188238</v>
+        <v>0.04538295720783819</v>
       </c>
       <c r="D36">
-        <v>-0.05602514813193275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04485855933004851</v>
+      </c>
+      <c r="E36">
+        <v>-0.01972438967252689</v>
+      </c>
+      <c r="F36">
+        <v>0.04539301360401726</v>
+      </c>
+      <c r="G36">
+        <v>-0.08253355536544066</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003568132101081399</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006387952598592602</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0005191420738993521</v>
+      </c>
+      <c r="E37">
+        <v>-0.00202374754221168</v>
+      </c>
+      <c r="F37">
+        <v>0.009323401847619249</v>
+      </c>
+      <c r="G37">
+        <v>0.006593523848576759</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08518223942194234</v>
+        <v>0.07904841553182451</v>
       </c>
       <c r="C39">
-        <v>-0.1513931747690692</v>
+        <v>0.1470123641980853</v>
       </c>
       <c r="D39">
-        <v>-0.04347438958845351</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03780042126520283</v>
+      </c>
+      <c r="E39">
+        <v>-0.01265854974230982</v>
+      </c>
+      <c r="F39">
+        <v>0.1161742086315672</v>
+      </c>
+      <c r="G39">
+        <v>0.0529914957756802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04540625743027334</v>
+        <v>0.05094741923379174</v>
       </c>
       <c r="C40">
-        <v>-0.05797660129193803</v>
+        <v>0.06292004659345761</v>
       </c>
       <c r="D40">
-        <v>-0.01086831926933354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.003498664952694515</v>
+      </c>
+      <c r="E40">
+        <v>-0.003768266562041127</v>
+      </c>
+      <c r="F40">
+        <v>0.05855744832771397</v>
+      </c>
+      <c r="G40">
+        <v>-0.03565899351838947</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02685030505502979</v>
+        <v>0.02873184057001577</v>
       </c>
       <c r="C41">
-        <v>-0.02062166994067257</v>
+        <v>0.02196174998777646</v>
       </c>
       <c r="D41">
-        <v>0.006322386013806009</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005717932306250228</v>
+      </c>
+      <c r="E41">
+        <v>-0.004951933110441611</v>
+      </c>
+      <c r="F41">
+        <v>-0.0142054494168365</v>
+      </c>
+      <c r="G41">
+        <v>-0.01321689849600539</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04277030377174722</v>
+        <v>0.04193475838338993</v>
       </c>
       <c r="C43">
-        <v>-0.03895637498813888</v>
+        <v>0.03689484259915093</v>
       </c>
       <c r="D43">
-        <v>0.0009965902075336859</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.004639092296765477</v>
+      </c>
+      <c r="E43">
+        <v>-0.02830458312910627</v>
+      </c>
+      <c r="F43">
+        <v>0.02423164194908615</v>
+      </c>
+      <c r="G43">
+        <v>0.003949737668527506</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05555607266110541</v>
+        <v>0.06367990362229142</v>
       </c>
       <c r="C44">
-        <v>-0.07845819146266649</v>
+        <v>0.08590795585657378</v>
       </c>
       <c r="D44">
-        <v>-0.2821539295789386</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.2596211950612443</v>
+      </c>
+      <c r="E44">
+        <v>0.01185643891771635</v>
+      </c>
+      <c r="F44">
+        <v>0.188218285730843</v>
+      </c>
+      <c r="G44">
+        <v>-0.175975117693123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-1.97299978646339e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.0003206167767677246</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-5.815947787393388e-05</v>
+      </c>
+      <c r="E45">
+        <v>5.44450291850809e-05</v>
+      </c>
+      <c r="F45">
+        <v>0.0001104119393427772</v>
+      </c>
+      <c r="G45">
+        <v>0.0003662027026712704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02647040464389072</v>
+        <v>0.02698476698002229</v>
       </c>
       <c r="C46">
-        <v>-0.03041333231800894</v>
+        <v>0.02942903763446762</v>
       </c>
       <c r="D46">
-        <v>-0.009033488739705798</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.00418459126574341</v>
+      </c>
+      <c r="E46">
+        <v>-0.03735126568841261</v>
+      </c>
+      <c r="F46">
+        <v>0.06565204566267369</v>
+      </c>
+      <c r="G46">
+        <v>0.03307868235463232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05201023080580124</v>
+        <v>0.05105019559557709</v>
       </c>
       <c r="C47">
-        <v>-0.02397352287481365</v>
+        <v>0.02605926390598779</v>
       </c>
       <c r="D47">
-        <v>0.02779196779638134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02281915931913934</v>
+      </c>
+      <c r="E47">
+        <v>-0.05774944956863096</v>
+      </c>
+      <c r="F47">
+        <v>-0.013887162553604</v>
+      </c>
+      <c r="G47">
+        <v>0.03259609809002244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04693508555794918</v>
+        <v>0.05039803914299277</v>
       </c>
       <c r="C48">
-        <v>-0.06684278368136028</v>
+        <v>0.06532368521822822</v>
       </c>
       <c r="D48">
-        <v>-0.02078802307775178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01910379792555413</v>
+      </c>
+      <c r="E48">
+        <v>0.01514336408788615</v>
+      </c>
+      <c r="F48">
+        <v>0.0536258481738631</v>
+      </c>
+      <c r="G48">
+        <v>0.02456463014939947</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1952151729479898</v>
+        <v>0.1980536347074354</v>
       </c>
       <c r="C49">
-        <v>0.01417464030575791</v>
+        <v>-0.00732886875865425</v>
       </c>
       <c r="D49">
-        <v>-0.03089677109214401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04262442757470015</v>
+      </c>
+      <c r="E49">
+        <v>0.02283115004270846</v>
+      </c>
+      <c r="F49">
+        <v>-0.05827151717908177</v>
+      </c>
+      <c r="G49">
+        <v>-0.009835946433935273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05039295569233734</v>
+        <v>0.05204297160840534</v>
       </c>
       <c r="C50">
-        <v>-0.02954319512153773</v>
+        <v>0.0326175524137095</v>
       </c>
       <c r="D50">
-        <v>-0.01889360591707013</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02201293156931206</v>
+      </c>
+      <c r="E50">
+        <v>-0.02741496427199141</v>
+      </c>
+      <c r="F50">
+        <v>0.008069990203345007</v>
+      </c>
+      <c r="G50">
+        <v>0.02282782907581217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1447617839171871</v>
+        <v>0.1383225691007205</v>
       </c>
       <c r="C52">
-        <v>-0.0357803177453961</v>
+        <v>0.03678746345939345</v>
       </c>
       <c r="D52">
-        <v>-0.05764462992229499</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.05510051328194704</v>
+      </c>
+      <c r="E52">
+        <v>-0.03020418403956828</v>
+      </c>
+      <c r="F52">
+        <v>-0.05938558323433986</v>
+      </c>
+      <c r="G52">
+        <v>0.02680434048340046</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1749452640136689</v>
+        <v>0.1659055258510179</v>
       </c>
       <c r="C53">
-        <v>-0.003259633017356024</v>
+        <v>0.006549921048614496</v>
       </c>
       <c r="D53">
-        <v>-0.1003967140785919</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1044411427240246</v>
+      </c>
+      <c r="E53">
+        <v>-0.02893266430486293</v>
+      </c>
+      <c r="F53">
+        <v>-0.1002357902904196</v>
+      </c>
+      <c r="G53">
+        <v>0.05817524403753025</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01109293715364539</v>
+        <v>0.01433006038934149</v>
       </c>
       <c r="C54">
-        <v>-0.02886639360128243</v>
+        <v>0.02916846861853768</v>
       </c>
       <c r="D54">
-        <v>-0.01400189006397754</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01215990717243473</v>
+      </c>
+      <c r="E54">
+        <v>-0.01692881305340621</v>
+      </c>
+      <c r="F54">
+        <v>0.05634324452751027</v>
+      </c>
+      <c r="G54">
+        <v>-0.004634982934519825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1206855223645273</v>
+        <v>0.1168850934728907</v>
       </c>
       <c r="C55">
-        <v>-0.005992004585455687</v>
+        <v>0.01217659865847015</v>
       </c>
       <c r="D55">
-        <v>-0.06183110923084326</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06136322398087866</v>
+      </c>
+      <c r="E55">
+        <v>-0.05485515631398519</v>
+      </c>
+      <c r="F55">
+        <v>-0.02713849730062421</v>
+      </c>
+      <c r="G55">
+        <v>0.06612543197750435</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.181250504316827</v>
+        <v>0.1735960188350439</v>
       </c>
       <c r="C56">
-        <v>0.002182140090199523</v>
+        <v>-0.00101700225897587</v>
       </c>
       <c r="D56">
-        <v>-0.05065413600768023</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05714295807118699</v>
+      </c>
+      <c r="E56">
+        <v>-0.04581515204034135</v>
+      </c>
+      <c r="F56">
+        <v>-0.137883590693872</v>
+      </c>
+      <c r="G56">
+        <v>0.0608596458105322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04535471014301175</v>
+        <v>0.045163626267051</v>
       </c>
       <c r="C58">
-        <v>-0.09109349311587608</v>
+        <v>0.09796434264020953</v>
       </c>
       <c r="D58">
-        <v>0.009962388022428707</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.007714203976231971</v>
+      </c>
+      <c r="E58">
+        <v>-0.04450104512291989</v>
+      </c>
+      <c r="F58">
+        <v>0.0386952615142523</v>
+      </c>
+      <c r="G58">
+        <v>0.02038075218377257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1856521943428326</v>
+        <v>0.1886817291829296</v>
       </c>
       <c r="C59">
-        <v>0.1860225304984117</v>
+        <v>-0.1893741646317092</v>
       </c>
       <c r="D59">
-        <v>0.07877147344189425</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.07777573939280147</v>
+      </c>
+      <c r="E59">
+        <v>0.008779284528887706</v>
+      </c>
+      <c r="F59">
+        <v>0.04501222063840073</v>
+      </c>
+      <c r="G59">
+        <v>0.04011228855001102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2169943850435678</v>
+        <v>0.2116154867014617</v>
       </c>
       <c r="C60">
-        <v>-0.01531396083635772</v>
+        <v>0.02126552822621336</v>
       </c>
       <c r="D60">
-        <v>0.05092134966748198</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03061790536130624</v>
+      </c>
+      <c r="E60">
+        <v>-0.007502821357831698</v>
+      </c>
+      <c r="F60">
+        <v>-0.2140633398697449</v>
+      </c>
+      <c r="G60">
+        <v>0.07438214661387767</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06595219282817109</v>
+        <v>0.06268910196876482</v>
       </c>
       <c r="C61">
-        <v>-0.1188458830784788</v>
+        <v>0.1168558309304179</v>
       </c>
       <c r="D61">
-        <v>-0.03321391136417522</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.02648669346953312</v>
+      </c>
+      <c r="E61">
+        <v>-0.0219084893906249</v>
+      </c>
+      <c r="F61">
+        <v>0.07689431755932902</v>
+      </c>
+      <c r="G61">
+        <v>0.02035986741377468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1679979484656968</v>
+        <v>0.164077746922767</v>
       </c>
       <c r="C62">
-        <v>0.00646076594723502</v>
+        <v>-0.00354914028509612</v>
       </c>
       <c r="D62">
-        <v>-0.0387131872045315</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04653302664935875</v>
+      </c>
+      <c r="E62">
+        <v>-0.04718941370944098</v>
+      </c>
+      <c r="F62">
+        <v>-0.1076276791770461</v>
+      </c>
+      <c r="G62">
+        <v>0.05564300277959554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03770016150303909</v>
+        <v>0.04314462941823381</v>
       </c>
       <c r="C63">
-        <v>-0.06719306326490508</v>
+        <v>0.07097268374692117</v>
       </c>
       <c r="D63">
-        <v>-0.02559912509824482</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01694637786562716</v>
+      </c>
+      <c r="E63">
+        <v>-0.02953389396045431</v>
+      </c>
+      <c r="F63">
+        <v>0.05057769526008394</v>
+      </c>
+      <c r="G63">
+        <v>-0.02377855630640392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1118583109077458</v>
+        <v>0.1096772476154202</v>
       </c>
       <c r="C64">
-        <v>-0.04890686985831054</v>
+        <v>0.05283505933927799</v>
       </c>
       <c r="D64">
-        <v>-0.03600752280771038</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03924021156115365</v>
+      </c>
+      <c r="E64">
+        <v>-0.01498585633849699</v>
+      </c>
+      <c r="F64">
+        <v>-0.03315664150186563</v>
+      </c>
+      <c r="G64">
+        <v>0.001918904848187547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1570072072005785</v>
+        <v>0.160109563110574</v>
       </c>
       <c r="C65">
-        <v>0.05758663887780695</v>
+        <v>-0.04875026078980402</v>
       </c>
       <c r="D65">
-        <v>-0.04469966341564633</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04988612990228875</v>
+      </c>
+      <c r="E65">
+        <v>-0.003189294691532137</v>
+      </c>
+      <c r="F65">
+        <v>-0.004954113591791163</v>
+      </c>
+      <c r="G65">
+        <v>0.01604641027061184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.103027225916844</v>
+        <v>0.09600996184743309</v>
       </c>
       <c r="C66">
-        <v>-0.1298085827332555</v>
+        <v>0.1297746222657312</v>
       </c>
       <c r="D66">
-        <v>-0.04771641674691817</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.03880352052458263</v>
+      </c>
+      <c r="E66">
+        <v>-0.006558582412065127</v>
+      </c>
+      <c r="F66">
+        <v>0.0956112328677986</v>
+      </c>
+      <c r="G66">
+        <v>0.006165801599031288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05812233761605989</v>
+        <v>0.0486736099766124</v>
       </c>
       <c r="C67">
-        <v>-0.07781084185194004</v>
+        <v>0.0711273197528435</v>
       </c>
       <c r="D67">
-        <v>0.05729240855960012</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.06046222051251096</v>
+      </c>
+      <c r="E67">
+        <v>-0.06933356537312756</v>
+      </c>
+      <c r="F67">
+        <v>-0.03650630603286527</v>
+      </c>
+      <c r="G67">
+        <v>-0.000954405444905245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1380627640981096</v>
+        <v>0.141108642287192</v>
       </c>
       <c r="C68">
-        <v>0.2469178821200111</v>
+        <v>-0.2497109079272955</v>
       </c>
       <c r="D68">
-        <v>0.03298620286988436</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02842188308115295</v>
+      </c>
+      <c r="E68">
+        <v>0.1047360242622816</v>
+      </c>
+      <c r="F68">
+        <v>0.1099509621602425</v>
+      </c>
+      <c r="G68">
+        <v>0.03509848286261932</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03944743327581886</v>
+        <v>0.03877983276705037</v>
       </c>
       <c r="C69">
-        <v>-0.01335607485375372</v>
+        <v>0.0151030734059706</v>
       </c>
       <c r="D69">
-        <v>-0.003150121811607385</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.004082692542583507</v>
+      </c>
+      <c r="E69">
+        <v>-0.06320242126786305</v>
+      </c>
+      <c r="F69">
+        <v>-0.04329081136994024</v>
+      </c>
+      <c r="G69">
+        <v>-0.02437408128940351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07014710888709673</v>
+        <v>0.0716337221234114</v>
       </c>
       <c r="C70">
-        <v>-0.07500813436736528</v>
+        <v>0.06883356908596294</v>
       </c>
       <c r="D70">
-        <v>0.4891368345501536</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.3916693120143688</v>
+      </c>
+      <c r="E70">
+        <v>-0.1201246699370172</v>
+      </c>
+      <c r="F70">
+        <v>-0.4378707220497962</v>
+      </c>
+      <c r="G70">
+        <v>0.4030641094129994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1602503200931789</v>
+        <v>0.1645559993550437</v>
       </c>
       <c r="C71">
-        <v>0.2550469661043352</v>
+        <v>-0.2550808647425245</v>
       </c>
       <c r="D71">
-        <v>0.03682785822613244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03366992011184336</v>
+      </c>
+      <c r="E71">
+        <v>0.1145609831790977</v>
+      </c>
+      <c r="F71">
+        <v>0.112525889168478</v>
+      </c>
+      <c r="G71">
+        <v>0.03518047940096152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1429847496557884</v>
+        <v>0.1481588431267899</v>
       </c>
       <c r="C72">
-        <v>-0.01328585694994358</v>
+        <v>0.01167373011764737</v>
       </c>
       <c r="D72">
-        <v>-0.0719067774135719</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06085282526982452</v>
+      </c>
+      <c r="E72">
+        <v>-0.04744935463786717</v>
+      </c>
+      <c r="F72">
+        <v>-0.01408786193623703</v>
+      </c>
+      <c r="G72">
+        <v>-0.01093038892618913</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1938326849027662</v>
+        <v>0.2009830598753012</v>
       </c>
       <c r="C73">
-        <v>-0.02298747268789524</v>
+        <v>0.03113016246365606</v>
       </c>
       <c r="D73">
-        <v>-0.04692244080274033</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.05177072956235996</v>
+      </c>
+      <c r="E73">
+        <v>-0.08705244391112121</v>
+      </c>
+      <c r="F73">
+        <v>-0.09580504527347213</v>
+      </c>
+      <c r="G73">
+        <v>-0.02348568177836343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08710726607136869</v>
+        <v>0.08611774801036287</v>
       </c>
       <c r="C74">
-        <v>-0.006337375437312226</v>
+        <v>0.01290679847087733</v>
       </c>
       <c r="D74">
-        <v>-0.07697588771104232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.07923338207152041</v>
+      </c>
+      <c r="E74">
+        <v>-0.03331356541145201</v>
+      </c>
+      <c r="F74">
+        <v>-0.06044556495691043</v>
+      </c>
+      <c r="G74">
+        <v>-0.004631778280333557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1238789315955107</v>
+        <v>0.1163538354823247</v>
       </c>
       <c r="C75">
-        <v>-0.02015654429099259</v>
+        <v>0.02347128926402605</v>
       </c>
       <c r="D75">
-        <v>-0.05267374838591231</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.04930989060069618</v>
+      </c>
+      <c r="E75">
+        <v>-0.06776936384654449</v>
+      </c>
+      <c r="F75">
+        <v>-0.05071481084998968</v>
+      </c>
+      <c r="G75">
+        <v>0.04055064394512754</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07207639378314314</v>
+        <v>0.08664278641278736</v>
       </c>
       <c r="C77">
-        <v>-0.1204787312685203</v>
+        <v>0.1183056185649157</v>
       </c>
       <c r="D77">
-        <v>-0.06645688579755263</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07402677135009675</v>
+      </c>
+      <c r="E77">
+        <v>0.005748101130632023</v>
+      </c>
+      <c r="F77">
+        <v>0.07753116978626814</v>
+      </c>
+      <c r="G77">
+        <v>0.1176878359256192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.09104874763420401</v>
+        <v>0.09357579050434418</v>
       </c>
       <c r="C78">
-        <v>-0.1410975001690693</v>
+        <v>0.1377331732218402</v>
       </c>
       <c r="D78">
-        <v>-0.09048760483376871</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07153231879436295</v>
+      </c>
+      <c r="E78">
+        <v>-0.006550489640931479</v>
+      </c>
+      <c r="F78">
+        <v>0.1142518519833183</v>
+      </c>
+      <c r="G78">
+        <v>0.1129450090531499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1678425919412699</v>
+        <v>0.1627589768238353</v>
       </c>
       <c r="C79">
-        <v>-0.01966176667259758</v>
+        <v>0.02013199467426185</v>
       </c>
       <c r="D79">
-        <v>-0.03242604306849505</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03221705033750821</v>
+      </c>
+      <c r="E79">
+        <v>-0.04349807415082318</v>
+      </c>
+      <c r="F79">
+        <v>-0.04673060747682733</v>
+      </c>
+      <c r="G79">
+        <v>0.04261639195629011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07570426624016405</v>
+        <v>0.07327265598944016</v>
       </c>
       <c r="C80">
-        <v>-0.05927909670956601</v>
+        <v>0.05804453652273422</v>
       </c>
       <c r="D80">
-        <v>-0.001042723279298792</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01361235522470968</v>
+      </c>
+      <c r="E80">
+        <v>-0.04899711565669829</v>
+      </c>
+      <c r="F80">
+        <v>0.1135043692216724</v>
+      </c>
+      <c r="G80">
+        <v>-0.08899238169273277</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1109961213020104</v>
+        <v>0.1048746143707225</v>
       </c>
       <c r="C81">
-        <v>0.01716114481895593</v>
+        <v>-0.01339005841790075</v>
       </c>
       <c r="D81">
-        <v>-0.02687884956992655</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02740440681192867</v>
+      </c>
+      <c r="E81">
+        <v>-0.06235040555996189</v>
+      </c>
+      <c r="F81">
+        <v>-0.05952950773069204</v>
+      </c>
+      <c r="G81">
+        <v>0.008980795108928711</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1607483715662412</v>
+        <v>0.1573132743682591</v>
       </c>
       <c r="C82">
-        <v>0.02320052715644891</v>
+        <v>-0.01650784155977945</v>
       </c>
       <c r="D82">
-        <v>-0.08954345386977522</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.09417729775357721</v>
+      </c>
+      <c r="E82">
+        <v>-0.02143219692737332</v>
+      </c>
+      <c r="F82">
+        <v>-0.09036228752095589</v>
+      </c>
+      <c r="G82">
+        <v>-0.009933114929094489</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05349998653076579</v>
+        <v>0.04939244444477037</v>
       </c>
       <c r="C83">
-        <v>-0.05879475532788918</v>
+        <v>0.05547928999681425</v>
       </c>
       <c r="D83">
-        <v>0.00955153502458367</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01031610140439199</v>
+      </c>
+      <c r="E83">
+        <v>-0.006437994006902302</v>
+      </c>
+      <c r="F83">
+        <v>0.002211040889538217</v>
+      </c>
+      <c r="G83">
+        <v>0.01663986777933614</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05132238973267261</v>
+        <v>0.04862238129640058</v>
       </c>
       <c r="C84">
-        <v>-0.07414161638367157</v>
+        <v>0.07212507873814601</v>
       </c>
       <c r="D84">
-        <v>-0.008759832066220529</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.007949592597223236</v>
+      </c>
+      <c r="E84">
+        <v>-0.007065841373833965</v>
+      </c>
+      <c r="F84">
+        <v>-0.01852444582492305</v>
+      </c>
+      <c r="G84">
+        <v>0.03221892664520525</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1405489583499642</v>
+        <v>0.1343066302877135</v>
       </c>
       <c r="C85">
-        <v>-0.01088924740175278</v>
+        <v>0.01405952247576463</v>
       </c>
       <c r="D85">
-        <v>-0.09061165378181769</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08719701105060731</v>
+      </c>
+      <c r="E85">
+        <v>-0.03462790123430144</v>
+      </c>
+      <c r="F85">
+        <v>-0.03139447513765361</v>
+      </c>
+      <c r="G85">
+        <v>0.02787847631992165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08305742375837154</v>
+        <v>0.08078394451497437</v>
       </c>
       <c r="C86">
-        <v>-0.09692697528378846</v>
+        <v>0.09901379757671028</v>
       </c>
       <c r="D86">
-        <v>0.5667538657396282</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.6530387142644153</v>
+      </c>
+      <c r="E86">
+        <v>-0.4163162465571242</v>
+      </c>
+      <c r="F86">
+        <v>0.4572697155043836</v>
+      </c>
+      <c r="G86">
+        <v>-0.04869701809072734</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08814332784822965</v>
+        <v>0.08743854635153131</v>
       </c>
       <c r="C87">
-        <v>-0.0840819506568114</v>
+        <v>0.08571645290226615</v>
       </c>
       <c r="D87">
-        <v>-0.05682707502692077</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.04736462669099709</v>
+      </c>
+      <c r="E87">
+        <v>0.0984684755494858</v>
+      </c>
+      <c r="F87">
+        <v>0.09306478357342328</v>
+      </c>
+      <c r="G87">
+        <v>-0.06045780059639248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0606180192016453</v>
+        <v>0.06037642648498808</v>
       </c>
       <c r="C88">
-        <v>-0.05931755482922498</v>
+        <v>0.06027990569844211</v>
       </c>
       <c r="D88">
-        <v>-0.01466633597839938</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01657067553880793</v>
+      </c>
+      <c r="E88">
+        <v>-0.0149221493327054</v>
+      </c>
+      <c r="F88">
+        <v>-0.02548544468998553</v>
+      </c>
+      <c r="G88">
+        <v>0.01199661491858843</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1467430279579759</v>
+        <v>0.1493189001234474</v>
       </c>
       <c r="C89">
-        <v>0.1992887415240635</v>
+        <v>-0.2101606881360455</v>
       </c>
       <c r="D89">
-        <v>0.01648390996736001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02043033547888542</v>
+      </c>
+      <c r="E89">
+        <v>0.09032975050715814</v>
+      </c>
+      <c r="F89">
+        <v>0.08788812039947598</v>
+      </c>
+      <c r="G89">
+        <v>0.002797809082695802</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1744477695173582</v>
+        <v>0.1818281078847915</v>
       </c>
       <c r="C90">
-        <v>0.2330430268376766</v>
+        <v>-0.2403584435275256</v>
       </c>
       <c r="D90">
-        <v>0.04902638898082674</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.04860157110619331</v>
+      </c>
+      <c r="E90">
+        <v>0.1435681643648691</v>
+      </c>
+      <c r="F90">
+        <v>0.1298820808838477</v>
+      </c>
+      <c r="G90">
+        <v>0.0198503012385877</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1265995954734765</v>
+        <v>0.1205242455142988</v>
       </c>
       <c r="C91">
-        <v>0.02108166247124019</v>
+        <v>-0.01903096173210374</v>
       </c>
       <c r="D91">
-        <v>-0.01772733841392013</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01343386593583133</v>
+      </c>
+      <c r="E91">
+        <v>-0.09695190300885595</v>
+      </c>
+      <c r="F91">
+        <v>-0.08552194984376463</v>
+      </c>
+      <c r="G91">
+        <v>-0.007437214170143226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1692025729728441</v>
+        <v>0.1714883643550374</v>
       </c>
       <c r="C92">
-        <v>0.2674887823608431</v>
+        <v>-0.2783291994758516</v>
       </c>
       <c r="D92">
-        <v>0.05119675139807221</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.04096645491436738</v>
+      </c>
+      <c r="E92">
+        <v>0.1014683888722786</v>
+      </c>
+      <c r="F92">
+        <v>0.1671334138420033</v>
+      </c>
+      <c r="G92">
+        <v>0.08045432936551053</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1754311422955724</v>
+        <v>0.1830954637493291</v>
       </c>
       <c r="C93">
-        <v>0.2252079228870811</v>
+        <v>-0.2323292826431234</v>
       </c>
       <c r="D93">
-        <v>0.02638089782946744</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02118001927317544</v>
+      </c>
+      <c r="E93">
+        <v>0.06999708080241285</v>
+      </c>
+      <c r="F93">
+        <v>0.0836445719307712</v>
+      </c>
+      <c r="G93">
+        <v>0.07321572389212637</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1195401869486001</v>
+        <v>0.1138954389416391</v>
       </c>
       <c r="C94">
-        <v>-0.03147644826673757</v>
+        <v>0.03229723920622383</v>
       </c>
       <c r="D94">
-        <v>-0.04601571033782671</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04198695407766841</v>
+      </c>
+      <c r="E94">
+        <v>-0.06512381470072116</v>
+      </c>
+      <c r="F94">
+        <v>-0.05109768331027718</v>
+      </c>
+      <c r="G94">
+        <v>0.03390545870309328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1195059339186326</v>
+        <v>0.1225953813284256</v>
       </c>
       <c r="C95">
-        <v>-0.1097380682719074</v>
+        <v>0.1174484907852766</v>
       </c>
       <c r="D95">
-        <v>-0.000999418919658447</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.004220552458599165</v>
+      </c>
+      <c r="E95">
+        <v>-0.04655688420187804</v>
+      </c>
+      <c r="F95">
+        <v>0.03984456304982112</v>
+      </c>
+      <c r="G95">
+        <v>0.008678847724116354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1237165902346995</v>
+        <v>0.1218715608581315</v>
       </c>
       <c r="C96">
-        <v>-0.1345844525965597</v>
+        <v>0.1405961894840022</v>
       </c>
       <c r="D96">
-        <v>0.04987343163910131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.02359241724135805</v>
+      </c>
+      <c r="E96">
+        <v>-0.09127483841223243</v>
+      </c>
+      <c r="F96">
+        <v>-0.1597302382939896</v>
+      </c>
+      <c r="G96">
+        <v>0.05156857045173021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1917308930788043</v>
+        <v>0.1959515633010505</v>
       </c>
       <c r="C97">
-        <v>0.01545426171481928</v>
+        <v>-0.0151476384938595</v>
       </c>
       <c r="D97">
-        <v>0.1247327157146811</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1674638950517089</v>
+      </c>
+      <c r="E97">
+        <v>-0.05875464737447424</v>
+      </c>
+      <c r="F97">
+        <v>-0.2755460595985028</v>
+      </c>
+      <c r="G97">
+        <v>-0.832369479381491</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1988382561465092</v>
+        <v>0.2042427674472055</v>
       </c>
       <c r="C98">
-        <v>-0.02761936190737314</v>
+        <v>0.03361071162947109</v>
       </c>
       <c r="D98">
-        <v>0.111595906164569</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.09774797755561281</v>
+      </c>
+      <c r="E98">
+        <v>0.0392548445563658</v>
+      </c>
+      <c r="F98">
+        <v>-0.09832497619823465</v>
+      </c>
+      <c r="G98">
+        <v>0.01738085429749466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05381992024684661</v>
+        <v>0.05371312003658949</v>
       </c>
       <c r="C99">
-        <v>-0.05519384542151236</v>
+        <v>0.05685001542980427</v>
       </c>
       <c r="D99">
-        <v>-0.006655372596788081</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.005517189203238055</v>
+      </c>
+      <c r="E99">
+        <v>-0.002431926354201478</v>
+      </c>
+      <c r="F99">
+        <v>0.04008447270703401</v>
+      </c>
+      <c r="G99">
+        <v>-0.002511599067744314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1137569742179498</v>
+        <v>0.1078873219077458</v>
       </c>
       <c r="C100">
-        <v>-0.3968227651831259</v>
+        <v>0.3630299885117946</v>
       </c>
       <c r="D100">
-        <v>0.3725834268717722</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3709929229392527</v>
+      </c>
+      <c r="E100">
+        <v>0.7776377005640945</v>
+      </c>
+      <c r="F100">
+        <v>-0.02848782381467849</v>
+      </c>
+      <c r="G100">
+        <v>-0.02353885784555134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02415946448957295</v>
+        <v>0.02692745813269504</v>
       </c>
       <c r="C101">
-        <v>-0.0455027148072417</v>
+        <v>0.0430349396194961</v>
       </c>
       <c r="D101">
-        <v>-0.003268915729741988</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.002074237834497829</v>
+      </c>
+      <c r="E101">
+        <v>-0.02801607156320281</v>
+      </c>
+      <c r="F101">
+        <v>0.07020940195681337</v>
+      </c>
+      <c r="G101">
+        <v>0.004898278038996878</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
